--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junxianshen/Documents/programs/python/face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD9351-2008-C244-8233-9A21E34589AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBD061-6A17-D245-B0A8-B89E0206F66F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
+    <workbookView xWindow="19020" yWindow="1720" windowWidth="28240" windowHeight="17440" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,19 +48,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019214xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">张超凡 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊材</t>
+  </si>
+  <si>
+    <t>孔啸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊琳娜</t>
+  </si>
+  <si>
+    <t>张琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶德昊</t>
+  </si>
+  <si>
+    <t>刘明星</t>
+  </si>
+  <si>
+    <t>郭阳飞</t>
+  </si>
+  <si>
+    <t>熊斌</t>
+  </si>
+  <si>
+    <t>李佳蔚</t>
+  </si>
+  <si>
+    <t>刘李鑫</t>
+  </si>
+  <si>
+    <t>张子晗</t>
+  </si>
+  <si>
+    <t>段晨鑫</t>
+  </si>
+  <si>
+    <t>高辉</t>
+  </si>
+  <si>
+    <t>韩东岐</t>
+  </si>
+  <si>
+    <t>汪嘉来</t>
+  </si>
+  <si>
+    <t>程鑫</t>
+  </si>
+  <si>
+    <t>王楚涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐绘凯</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>吴灿华</t>
+  </si>
+  <si>
+    <t>秦世松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王士诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范英晨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +151,22 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,8 +193,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A51026-8F54-DA44-B617-A63FA1BB182E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -440,7 +540,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -448,11 +548,211 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2019214570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2019312690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2019214562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2019312681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2019214557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2019214573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2019214574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2019214572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2019214561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2019312684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2019214565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2019214566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2019214551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>2019214552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2019312689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2019214567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2019214559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2019214556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2019214576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>2019214546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2019214547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2019214569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2019214558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>2019214560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2019214554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2019214571</v>
       </c>
     </row>
   </sheetData>

--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junxianshen/Documents/programs/python/face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saya\Desktop\qrcode-face_recog_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBD061-6A17-D245-B0A8-B89E0206F66F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD86626-D13D-4DEE-9359-3CCE9B2B8E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="1720" windowWidth="28240" windowHeight="17440" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
+    <workbookView xWindow="4890" yWindow="5115" windowWidth="28800" windowHeight="15885" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>范英晨</t>
+  </si>
+  <si>
+    <t>王敏虎</t>
   </si>
 </sst>
 </file>
@@ -142,14 +145,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,7 +160,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +168,7 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A51026-8F54-DA44-B617-A63FA1BB182E}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -555,7 +558,7 @@
         <v>2019214570</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -571,7 +574,7 @@
         <v>2019214562</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -579,7 +582,7 @@
         <v>2019312681</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +590,7 @@
         <v>2019214557</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -753,6 +756,14 @@
       </c>
       <c r="B28">
         <v>2019214571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2019312688</v>
       </c>
     </row>
   </sheetData>

--- a/namelist.xlsx
+++ b/namelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saya\Desktop\qrcode-face_recog_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD86626-D13D-4DEE-9359-3CCE9B2B8E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C191B-35E4-47CE-94E3-1010F853CBE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="5115" windowWidth="28800" windowHeight="15885" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{2DBE1D61-800C-B944-A68B-CC5700C58460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,42 @@
   </si>
   <si>
     <t>王敏虎</t>
+  </si>
+  <si>
+    <t>赵子一</t>
+  </si>
+  <si>
+    <t>孟子立</t>
+  </si>
+  <si>
+    <t>吴家乐</t>
+  </si>
+  <si>
+    <t>曾贻顺</t>
+  </si>
+  <si>
+    <t>吴松云</t>
+  </si>
+  <si>
+    <t>李贇</t>
+  </si>
+  <si>
+    <t>郑涌</t>
+  </si>
+  <si>
+    <t>李想</t>
+  </si>
+  <si>
+    <t>陈闻起</t>
+  </si>
+  <si>
+    <t>刘玉家</t>
+  </si>
+  <si>
+    <t>林子童</t>
+  </si>
+  <si>
+    <t>刘伟森</t>
   </si>
 </sst>
 </file>
@@ -520,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A51026-8F54-DA44-B617-A63FA1BB182E}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -766,6 +802,102 @@
         <v>2019312688</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>2019214550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2019312687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>2019214555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2019312691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>2019312682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2019312692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>2019214563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>2019312685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>2019312683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>2019214568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>2019214564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>2019214549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
